--- a/Output/June/productivity_agent/productivity_agent_2022-06-02.xlsx
+++ b/Output/June/productivity_agent/productivity_agent_2022-06-02.xlsx
@@ -1763,7 +1763,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="J3">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="AV3">
-        <v>30.83333333333334</v>
+        <v>0</v>
       </c>
       <c r="AW3">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.4111111111111111</v>
+        <v>0</v>
       </c>
       <c r="CI3">
         <v>0</v>
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.8263093549806837</v>
+        <v>0.6636719923433211</v>
       </c>
     </row>
     <row r="4" spans="1:105">
@@ -17930,7 +17930,7 @@
         <v>0.6738703339882122</v>
       </c>
       <c r="J54">
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -18044,7 +18044,7 @@
         <v>0</v>
       </c>
       <c r="AV54">
-        <v>80.40485829959513</v>
+        <v>0</v>
       </c>
       <c r="AW54">
         <v>0</v>
@@ -18158,7 +18158,7 @@
         <v>0</v>
       </c>
       <c r="CH54">
-        <v>1.072064777327935</v>
+        <v>0</v>
       </c>
       <c r="CI54">
         <v>0</v>
@@ -18215,7 +18215,7 @@
         <v>0</v>
       </c>
       <c r="DA54">
-        <v>0.9442253479359231</v>
+        <v>0.1722136861283429</v>
       </c>
     </row>
     <row r="55" spans="1:105">

--- a/Output/June/productivity_agent/productivity_agent_2022-06-02.xlsx
+++ b/Output/June/productivity_agent/productivity_agent_2022-06-02.xlsx
@@ -1763,7 +1763,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>89.58333333333334</v>
       </c>
       <c r="AW3">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="CH3">
-        <v>0</v>
+        <v>1.194444444444445</v>
       </c>
       <c r="CI3">
         <v>0</v>
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.6636719923433211</v>
+        <v>1.136199464870794</v>
       </c>
     </row>
     <row r="4" spans="1:105">
@@ -2714,7 +2714,7 @@
         <v>0.9904761904761905</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>64.28571428571428</v>
       </c>
       <c r="AW6">
         <v>0</v>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="CH6">
-        <v>0</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="CI6">
         <v>0</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="DA6">
-        <v>1.039357059024891</v>
+        <v>1.154741674409506</v>
       </c>
     </row>
     <row r="7" spans="1:105">
@@ -17930,7 +17930,7 @@
         <v>0.6738703339882122</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -18044,7 +18044,7 @@
         <v>0</v>
       </c>
       <c r="AV54">
-        <v>0</v>
+        <v>72.14574898785425</v>
       </c>
       <c r="AW54">
         <v>0</v>
@@ -18158,7 +18158,7 @@
         <v>0</v>
       </c>
       <c r="CH54">
-        <v>0</v>
+        <v>0.9619433198380566</v>
       </c>
       <c r="CI54">
         <v>0</v>
@@ -18215,7 +18215,7 @@
         <v>0</v>
       </c>
       <c r="DA54">
-        <v>0.1722136861283429</v>
+        <v>0.8649250563907336</v>
       </c>
     </row>
     <row r="55" spans="1:105">
